--- a/Code/Results/Cases/Case_7_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_59/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.012483427091979</v>
+        <v>2.059401948816173</v>
       </c>
       <c r="C2">
-        <v>0.7644968098815355</v>
+        <v>0.4579222769115177</v>
       </c>
       <c r="D2">
-        <v>0.01093523129802287</v>
+        <v>0.03241584762477601</v>
       </c>
       <c r="E2">
-        <v>0.1669918268025157</v>
+        <v>0.2276109362102758</v>
       </c>
       <c r="F2">
-        <v>1.494915499483866</v>
+        <v>0.5822692131548806</v>
       </c>
       <c r="G2">
-        <v>0.0007724267971218309</v>
+        <v>0.0007771240749337763</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.08039954537329</v>
+        <v>0.884385163167785</v>
       </c>
       <c r="N2">
-        <v>0.6501442075821799</v>
+        <v>0.5591341333687403</v>
       </c>
       <c r="O2">
-        <v>1.145430785802532</v>
+        <v>1.643491831260377</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.599766906456182</v>
+        <v>1.790036184500082</v>
       </c>
       <c r="C3">
-        <v>0.6609701210788614</v>
+        <v>0.4044638651709818</v>
       </c>
       <c r="D3">
-        <v>0.01219212073720444</v>
+        <v>0.02906649017548091</v>
       </c>
       <c r="E3">
-        <v>0.1448981647373841</v>
+        <v>0.1985408645005293</v>
       </c>
       <c r="F3">
-        <v>1.330347810799282</v>
+        <v>0.5257672351054339</v>
       </c>
       <c r="G3">
-        <v>0.0007800499405955534</v>
+        <v>0.0007814961168497627</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9310475636567972</v>
+        <v>0.7654196468146708</v>
       </c>
       <c r="N3">
-        <v>0.6943449942971682</v>
+        <v>0.5874970083184614</v>
       </c>
       <c r="O3">
-        <v>1.024706973864951</v>
+        <v>1.503801513222186</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.349538141155222</v>
+        <v>1.6250354960263</v>
       </c>
       <c r="C4">
-        <v>0.5981090703211578</v>
+        <v>0.3716333663818432</v>
       </c>
       <c r="D4">
-        <v>0.01300593815738837</v>
+        <v>0.02700356042033647</v>
       </c>
       <c r="E4">
-        <v>0.1317264699298875</v>
+        <v>0.1811647550588233</v>
       </c>
       <c r="F4">
-        <v>1.232841773679951</v>
+        <v>0.4922839964737804</v>
       </c>
       <c r="G4">
-        <v>0.0007848538627374745</v>
+        <v>0.0007842671391002954</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8408304345412461</v>
+        <v>0.692955952574728</v>
       </c>
       <c r="N4">
-        <v>0.7230687554179731</v>
+        <v>0.6059484357509852</v>
       </c>
       <c r="O4">
-        <v>0.9534538556908672</v>
+        <v>1.421969058261624</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.248244922484616</v>
+        <v>1.557865692949036</v>
       </c>
       <c r="C5">
-        <v>0.5726382809464496</v>
+        <v>0.3582481844404128</v>
       </c>
       <c r="D5">
-        <v>0.01334734751944389</v>
+        <v>0.0261611700514095</v>
       </c>
       <c r="E5">
-        <v>0.1264454881402024</v>
+        <v>0.174190259277367</v>
       </c>
       <c r="F5">
-        <v>1.19390446457291</v>
+        <v>0.4789201621204242</v>
       </c>
       <c r="G5">
-        <v>0.0007868439575997282</v>
+        <v>0.0007854185970240851</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8043855346160385</v>
+        <v>0.6635499649792322</v>
       </c>
       <c r="N5">
-        <v>0.7351513897473758</v>
+        <v>0.6137193057678871</v>
       </c>
       <c r="O5">
-        <v>0.9250657743725128</v>
+        <v>1.389539598590432</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.231462752736149</v>
+        <v>1.54671557181328</v>
       </c>
       <c r="C6">
-        <v>0.5684167962921833</v>
+        <v>0.3560250601815085</v>
       </c>
       <c r="D6">
-        <v>0.01340460650605735</v>
+        <v>0.02602118407440202</v>
       </c>
       <c r="E6">
-        <v>0.1255734713261134</v>
+        <v>0.1730382249421112</v>
       </c>
       <c r="F6">
-        <v>1.187484533226467</v>
+        <v>0.4767174163004242</v>
       </c>
       <c r="G6">
-        <v>0.0007871764121536293</v>
+        <v>0.0007856111526976941</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7983516728469411</v>
+        <v>0.6586739489058999</v>
       </c>
       <c r="N6">
-        <v>0.7371799218283144</v>
+        <v>0.6150246088575742</v>
       </c>
       <c r="O6">
-        <v>0.9203890527874989</v>
+        <v>1.384208114379845</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.348169479080582</v>
+        <v>1.6241293769246</v>
       </c>
       <c r="C7">
-        <v>0.59776501265398</v>
+        <v>0.3714528814721803</v>
       </c>
       <c r="D7">
-        <v>0.01301050396172432</v>
+        <v>0.02699220680065295</v>
       </c>
       <c r="E7">
-        <v>0.1316549138357317</v>
+        <v>0.1810702797138291</v>
       </c>
       <c r="F7">
-        <v>1.232313540822645</v>
+        <v>0.492102659695405</v>
       </c>
       <c r="G7">
-        <v>0.0007848805686273648</v>
+        <v>0.0007842825774403428</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8403377013742457</v>
+        <v>0.6925589018426095</v>
       </c>
       <c r="N7">
-        <v>0.7232302040507896</v>
+        <v>0.6060522283935192</v>
       </c>
       <c r="O7">
-        <v>0.9530684731730332</v>
+        <v>1.42152807919723</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.869441293881096</v>
+        <v>1.966425385241962</v>
       </c>
       <c r="C8">
-        <v>0.728634607081716</v>
+        <v>0.4394882393344517</v>
       </c>
       <c r="D8">
-        <v>0.01135935641648089</v>
+        <v>0.03126224442115699</v>
       </c>
       <c r="E8">
-        <v>0.1592843198132101</v>
+        <v>0.2174815913409063</v>
       </c>
       <c r="F8">
-        <v>1.437379684186425</v>
+        <v>0.5625219755865771</v>
       </c>
       <c r="G8">
-        <v>0.0007750305840503048</v>
+        <v>0.0007786138809800008</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.028560477393711</v>
+        <v>0.843231000479868</v>
       </c>
       <c r="N8">
-        <v>0.6650426691488782</v>
+        <v>0.568693029814721</v>
       </c>
       <c r="O8">
-        <v>1.103162647405071</v>
+        <v>1.59446445903086</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.923055228211012</v>
+        <v>2.642203180622687</v>
       </c>
       <c r="C9">
-        <v>0.9924539194668682</v>
+        <v>0.5730903209653491</v>
       </c>
       <c r="D9">
-        <v>0.008497103209167634</v>
+        <v>0.03959120688966777</v>
       </c>
       <c r="E9">
-        <v>0.2172185548900316</v>
+        <v>0.2932488000238465</v>
       </c>
       <c r="F9">
-        <v>1.872231298984943</v>
+        <v>0.7113284374447062</v>
       </c>
       <c r="G9">
-        <v>0.0007566204652076827</v>
+        <v>0.0007681616177671161</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.412178626369709</v>
+        <v>1.14442540750553</v>
       </c>
       <c r="N9">
-        <v>0.5645485986626184</v>
+        <v>0.5040803885064804</v>
       </c>
       <c r="O9">
-        <v>1.423982663189321</v>
+        <v>1.968326716496392</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.725949102391098</v>
+        <v>3.143654826636691</v>
       </c>
       <c r="C10">
-        <v>1.193169774497107</v>
+        <v>0.6717304886350632</v>
       </c>
       <c r="D10">
-        <v>0.006690932146622863</v>
+        <v>0.04569359662328054</v>
       </c>
       <c r="E10">
-        <v>0.2630611501159592</v>
+        <v>0.3525019852082494</v>
       </c>
       <c r="F10">
-        <v>2.218906866332716</v>
+        <v>0.8288634555609349</v>
       </c>
       <c r="G10">
-        <v>0.0007435339191363784</v>
+        <v>0.0007608530535109604</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.707155749443587</v>
+        <v>1.370893213678229</v>
       </c>
       <c r="N10">
-        <v>0.5006361900089402</v>
+        <v>0.4625108816442207</v>
       </c>
       <c r="O10">
-        <v>1.681621418374604</v>
+        <v>2.269397431124816</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.099951890286945</v>
+        <v>3.37338930082683</v>
       </c>
       <c r="C11">
-        <v>1.286627415285182</v>
+        <v>0.7168005550049941</v>
       </c>
       <c r="D11">
-        <v>0.005952173887593837</v>
+        <v>0.0484686535677028</v>
       </c>
       <c r="E11">
-        <v>0.2848869734344817</v>
+        <v>0.3804646428596783</v>
       </c>
       <c r="F11">
-        <v>2.384391746959878</v>
+        <v>0.8845199855025214</v>
       </c>
       <c r="G11">
-        <v>0.0007376470784441502</v>
+        <v>0.0007576005398360893</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.845311270920163</v>
+        <v>1.475457706701576</v>
       </c>
       <c r="N11">
-        <v>0.4741360242311075</v>
+        <v>0.4450331273412047</v>
       </c>
       <c r="O11">
-        <v>1.805085248505506</v>
+        <v>2.413356731147616</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.243076202247323</v>
+        <v>3.460664768527124</v>
       </c>
       <c r="C12">
-        <v>1.322389627213283</v>
+        <v>0.7339041213059261</v>
       </c>
       <c r="D12">
-        <v>0.00568622225895421</v>
+        <v>0.04951958612483764</v>
       </c>
       <c r="E12">
-        <v>0.2933168678469684</v>
+        <v>0.3912193446982073</v>
       </c>
       <c r="F12">
-        <v>2.448355655627182</v>
+        <v>0.9059471388874272</v>
       </c>
       <c r="G12">
-        <v>0.0007354246646122913</v>
+        <v>0.0007563785520839265</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.898305294299192</v>
+        <v>1.515313068584248</v>
       </c>
       <c r="N12">
-        <v>0.4645123757299672</v>
+        <v>0.4386346663186345</v>
       </c>
       <c r="O12">
-        <v>1.852882765449436</v>
+        <v>2.46899182928351</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.212181089792807</v>
+        <v>3.441855191964692</v>
       </c>
       <c r="C13">
-        <v>1.314669968325973</v>
+        <v>0.7302188026357328</v>
       </c>
       <c r="D13">
-        <v>0.00574285249076123</v>
+        <v>0.04929324181772188</v>
       </c>
       <c r="E13">
-        <v>0.2914935636770792</v>
+        <v>0.3888953967393789</v>
       </c>
       <c r="F13">
-        <v>2.434519017774335</v>
+        <v>0.9013161843454185</v>
       </c>
       <c r="G13">
-        <v>0.0007359030457984827</v>
+        <v>0.0007566413109457796</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.886860090134732</v>
+        <v>1.506717353271739</v>
       </c>
       <c r="N13">
-        <v>0.4665659857683906</v>
+        <v>0.4400026704027766</v>
       </c>
       <c r="O13">
-        <v>1.842539761362687</v>
+        <v>2.456958044969895</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.111695325528274</v>
+        <v>3.380563611480738</v>
       </c>
       <c r="C14">
-        <v>1.289561752737484</v>
+        <v>0.7182068953403302</v>
       </c>
       <c r="D14">
-        <v>0.005930005381222792</v>
+        <v>0.04855511152850056</v>
       </c>
       <c r="E14">
-        <v>0.2855770432343334</v>
+        <v>0.3813459879341323</v>
       </c>
       <c r="F14">
-        <v>2.389626959932727</v>
+        <v>0.8862755516431804</v>
       </c>
       <c r="G14">
-        <v>0.0007374641197228519</v>
+        <v>0.0007574998166693755</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.849656878001099</v>
+        <v>1.478731214390308</v>
       </c>
       <c r="N14">
-        <v>0.4733357794112933</v>
+        <v>0.4445022290379725</v>
       </c>
       <c r="O14">
-        <v>1.808995752883561</v>
+        <v>2.417910712765433</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.050347513358645</v>
+        <v>3.343058673414873</v>
       </c>
       <c r="C15">
-        <v>1.274232672544088</v>
+        <v>0.7108542608872312</v>
       </c>
       <c r="D15">
-        <v>0.006046500440358038</v>
+        <v>0.04810300244846388</v>
       </c>
       <c r="E15">
-        <v>0.2819752915735521</v>
+        <v>0.3767440098534536</v>
       </c>
       <c r="F15">
-        <v>2.362304105385007</v>
+        <v>0.8771096032767645</v>
       </c>
       <c r="G15">
-        <v>0.0007384211216172185</v>
+        <v>0.0007580269132906072</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.826960490864508</v>
+        <v>1.461623794075606</v>
       </c>
       <c r="N15">
-        <v>0.4775373695610554</v>
+        <v>0.4472874220170553</v>
       </c>
       <c r="O15">
-        <v>1.788589698693769</v>
+        <v>2.394142611830034</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.701703063585342</v>
+        <v>3.128677680178782</v>
       </c>
       <c r="C16">
-        <v>1.187110533438499</v>
+        <v>0.6687897093515858</v>
       </c>
       <c r="D16">
-        <v>0.006741033266416174</v>
+        <v>0.04551223889747291</v>
       </c>
       <c r="E16">
-        <v>0.2616564087300119</v>
+        <v>0.3506965857395912</v>
       </c>
       <c r="F16">
-        <v>2.208263416215047</v>
+        <v>0.8252732695223273</v>
       </c>
       <c r="G16">
-        <v>0.0007439197468628937</v>
+        <v>0.0007610670059028014</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.698215628937902</v>
+        <v>1.36409382997104</v>
       </c>
       <c r="N16">
-        <v>0.5024232336846381</v>
+        <v>0.4636830899413269</v>
       </c>
       <c r="O16">
-        <v>1.673690654675767</v>
+        <v>2.260139766284084</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.490224676254911</v>
+        <v>2.997609275947639</v>
       </c>
       <c r="C17">
-        <v>1.134256714429938</v>
+        <v>0.643040691851553</v>
       </c>
       <c r="D17">
-        <v>0.007189576857101976</v>
+        <v>0.04392279212004269</v>
       </c>
       <c r="E17">
-        <v>0.2494571600451465</v>
+        <v>0.3349897783686089</v>
       </c>
       <c r="F17">
-        <v>2.115877681178688</v>
+        <v>0.7940590662176703</v>
       </c>
       <c r="G17">
-        <v>0.0007473081214248974</v>
+        <v>0.0007629500041087323</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.620322915237267</v>
+        <v>1.304682985075033</v>
       </c>
       <c r="N17">
-        <v>0.5183768001539519</v>
+        <v>0.4741177980259152</v>
       </c>
       <c r="O17">
-        <v>1.604904332358998</v>
+        <v>2.179804677421231</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.369396719731355</v>
+        <v>2.922371795082825</v>
       </c>
       <c r="C18">
-        <v>1.104054847986788</v>
+        <v>0.6282486668344518</v>
       </c>
       <c r="D18">
-        <v>0.007455238458184965</v>
+        <v>0.04300848068192664</v>
       </c>
       <c r="E18">
-        <v>0.2425302428989582</v>
+        <v>0.3260491613893137</v>
       </c>
       <c r="F18">
-        <v>2.063460132252473</v>
+        <v>0.7763091952087109</v>
       </c>
       <c r="G18">
-        <v>0.0007492634473216242</v>
+        <v>0.0007640398953562277</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.57588747735133</v>
+        <v>1.270654271455655</v>
       </c>
       <c r="N18">
-        <v>0.5277923636448207</v>
+        <v>0.4802534905051132</v>
       </c>
       <c r="O18">
-        <v>1.565920069672728</v>
+        <v>2.134249626473036</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.328618624766705</v>
+        <v>2.896922008987019</v>
       </c>
       <c r="C19">
-        <v>1.093861295842942</v>
+        <v>0.6232432228791822</v>
       </c>
       <c r="D19">
-        <v>0.007546452094969069</v>
+        <v>0.04269888653041676</v>
       </c>
       <c r="E19">
-        <v>0.2401996149270502</v>
+        <v>0.3230374801950902</v>
       </c>
       <c r="F19">
-        <v>2.045831067051608</v>
+        <v>0.7703333201841502</v>
       </c>
       <c r="G19">
-        <v>0.0007499266676996446</v>
+        <v>0.0007644101094707261</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.560902306365094</v>
+        <v>1.259156187561601</v>
       </c>
       <c r="N19">
-        <v>0.5310202763342815</v>
+        <v>0.4823535233891647</v>
       </c>
       <c r="O19">
-        <v>1.55281617248923</v>
+        <v>2.118934051438202</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.51265157981436</v>
+        <v>3.011545922085361</v>
       </c>
       <c r="C20">
-        <v>1.139862149372647</v>
+        <v>0.6457797867863349</v>
       </c>
       <c r="D20">
-        <v>0.007141022045131784</v>
+        <v>0.04409200068551655</v>
       </c>
       <c r="E20">
-        <v>0.2507463290701466</v>
+        <v>0.3366519705049313</v>
       </c>
       <c r="F20">
-        <v>2.125636528151333</v>
+        <v>0.7973605335667884</v>
       </c>
       <c r="G20">
-        <v>0.0007469467770900537</v>
+        <v>0.0007627488527343454</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.628576079674772</v>
+        <v>1.310992329810773</v>
       </c>
       <c r="N20">
-        <v>0.5166534477100697</v>
+        <v>0.4729930469544712</v>
       </c>
       <c r="O20">
-        <v>1.6121657638746</v>
+        <v>2.188288253363908</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.141167734764849</v>
+        <v>3.398558441508044</v>
       </c>
       <c r="C21">
-        <v>1.29692601129085</v>
+        <v>0.7217340251267217</v>
       </c>
       <c r="D21">
-        <v>0.005874642905511429</v>
+        <v>0.04877191431967276</v>
       </c>
       <c r="E21">
-        <v>0.287310173730603</v>
+        <v>0.3835587546812604</v>
       </c>
       <c r="F21">
-        <v>2.402776056475815</v>
+        <v>0.8906835123549968</v>
       </c>
       <c r="G21">
-        <v>0.0007370054331965952</v>
+        <v>0.0007572473963002477</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.860565050661577</v>
+        <v>1.48694407790407</v>
       </c>
       <c r="N21">
-        <v>0.471335804827568</v>
+        <v>0.4431745120511508</v>
       </c>
       <c r="O21">
-        <v>1.818818851440255</v>
+        <v>2.429348483997842</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.560802653744474</v>
+        <v>3.65315034963993</v>
       </c>
       <c r="C22">
-        <v>1.401779232759793</v>
+        <v>0.7715916049456553</v>
       </c>
       <c r="D22">
-        <v>0.005128546834311187</v>
+        <v>0.05183108407767634</v>
       </c>
       <c r="E22">
-        <v>0.3121825366809432</v>
+        <v>0.4151929396434184</v>
       </c>
       <c r="F22">
-        <v>2.591572284864156</v>
+        <v>0.9537418717263648</v>
       </c>
       <c r="G22">
-        <v>0.0007305463185707333</v>
+        <v>0.0007537078603899724</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.016193121255128</v>
+        <v>1.603468477165151</v>
       </c>
       <c r="N22">
-        <v>0.4441394306501536</v>
+        <v>0.4249759462150209</v>
       </c>
       <c r="O22">
-        <v>1.960047935245981</v>
+        <v>2.593488462702794</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.335937520657694</v>
+        <v>3.517101694085</v>
       </c>
       <c r="C23">
-        <v>1.345592520522018</v>
+        <v>0.7449589604190976</v>
       </c>
       <c r="D23">
-        <v>0.005518580679136242</v>
+        <v>0.05019821767096744</v>
       </c>
       <c r="E23">
-        <v>0.2988090979396532</v>
+        <v>0.3982122635794809</v>
       </c>
       <c r="F23">
-        <v>2.490040560388707</v>
+        <v>0.9198845227225689</v>
       </c>
       <c r="G23">
-        <v>0.0007339911790485473</v>
+        <v>0.0007555921049756109</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.932725308588772</v>
+        <v>1.541124051562448</v>
       </c>
       <c r="N23">
-        <v>0.4584179296395092</v>
+        <v>0.4345659412227008</v>
       </c>
       <c r="O23">
-        <v>1.884054003841925</v>
+        <v>2.505240310483742</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.502510046380507</v>
+        <v>3.005244808128339</v>
       </c>
       <c r="C24">
-        <v>1.13732736217446</v>
+        <v>0.6445414069664821</v>
       </c>
       <c r="D24">
-        <v>0.007162949556263065</v>
+        <v>0.04401550312039149</v>
       </c>
       <c r="E24">
-        <v>0.2501632278897219</v>
+        <v>0.3359002164219618</v>
       </c>
       <c r="F24">
-        <v>2.121222398058791</v>
+        <v>0.7958673336752753</v>
       </c>
       <c r="G24">
-        <v>0.0007471101179399559</v>
+        <v>0.0007628397703734318</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.624843753819775</v>
+        <v>1.308139481085604</v>
       </c>
       <c r="N24">
-        <v>0.5174318194970411</v>
+        <v>0.4735011223571419</v>
       </c>
       <c r="O24">
-        <v>1.608881131083152</v>
+        <v>2.184450872822993</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.633731672017916</v>
+        <v>2.458685667129316</v>
       </c>
       <c r="C25">
-        <v>0.920073540910181</v>
+        <v>0.5368913108602271</v>
       </c>
       <c r="D25">
-        <v>0.009224831310633341</v>
+        <v>0.0373417721910414</v>
       </c>
       <c r="E25">
-        <v>0.2010490922066595</v>
+        <v>0.2721936288698359</v>
       </c>
       <c r="F25">
-        <v>1.750391629453247</v>
+        <v>0.669759769377066</v>
       </c>
       <c r="G25">
-        <v>0.0007615148403281623</v>
+        <v>0.0007709215272847238</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.306433803045834</v>
+        <v>1.062165125371308</v>
       </c>
       <c r="N25">
-        <v>0.5901218178234018</v>
+        <v>0.5205718456194361</v>
       </c>
       <c r="O25">
-        <v>1.33379962115616</v>
+        <v>1.862953174140642</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.059401948816173</v>
+        <v>1.752791519178828</v>
       </c>
       <c r="C2">
-        <v>0.4579222769115177</v>
+        <v>0.4348431241315041</v>
       </c>
       <c r="D2">
-        <v>0.03241584762477601</v>
+        <v>0.055005299434427</v>
       </c>
       <c r="E2">
-        <v>0.2276109362102758</v>
+        <v>0.340223264371609</v>
       </c>
       <c r="F2">
-        <v>0.5822692131548806</v>
+        <v>0.3802202499619369</v>
       </c>
       <c r="G2">
-        <v>0.0007771240749337763</v>
+        <v>0.2744613272272503</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.004103156859608048</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2118301893496479</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1390030165527669</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.884385163167785</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5591341333687403</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.643491831260377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.8171452402982666</v>
+      </c>
+      <c r="P2">
+        <v>0.6836729792276657</v>
+      </c>
+      <c r="Q2">
+        <v>0.9763739423633808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.790036184500082</v>
+        <v>1.532819340907082</v>
       </c>
       <c r="C3">
-        <v>0.4044638651709818</v>
+        <v>0.3858117541877277</v>
       </c>
       <c r="D3">
-        <v>0.02906649017548091</v>
+        <v>0.04819060914428519</v>
       </c>
       <c r="E3">
-        <v>0.1985408645005293</v>
+        <v>0.3065088541930407</v>
       </c>
       <c r="F3">
-        <v>0.5257672351054339</v>
+        <v>0.3456800341596065</v>
       </c>
       <c r="G3">
-        <v>0.0007814961168497627</v>
+        <v>0.248571979284101</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.002613730153021354</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2038652484388592</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1389142330835718</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7654196468146708</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5874970083184614</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.503801513222186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.7121395688409464</v>
+      </c>
+      <c r="P3">
+        <v>0.6857641789498956</v>
+      </c>
+      <c r="Q3">
+        <v>0.9045270066193325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.6250354960263</v>
+        <v>1.397467096733834</v>
       </c>
       <c r="C4">
-        <v>0.3716333663818432</v>
+        <v>0.3556230674300025</v>
       </c>
       <c r="D4">
-        <v>0.02700356042033647</v>
+        <v>0.04399713323474685</v>
       </c>
       <c r="E4">
-        <v>0.1811647550588233</v>
+        <v>0.2857704913253087</v>
       </c>
       <c r="F4">
-        <v>0.4922839964737804</v>
+        <v>0.3250154155336347</v>
       </c>
       <c r="G4">
-        <v>0.0007842671391002954</v>
+        <v>0.233133049880621</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.001840362635482373</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1992848444074369</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1392144354421916</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.692955952574728</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6059484357509852</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.421969058261624</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.6476510832196212</v>
+      </c>
+      <c r="P4">
+        <v>0.6876271281806368</v>
+      </c>
+      <c r="Q4">
+        <v>0.8620232554807359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.557865692949036</v>
+        <v>1.342230328790123</v>
       </c>
       <c r="C5">
-        <v>0.3582481844404128</v>
+        <v>0.3432986576366943</v>
       </c>
       <c r="D5">
-        <v>0.0261611700514095</v>
+        <v>0.0422856708993109</v>
       </c>
       <c r="E5">
-        <v>0.174190259277367</v>
+        <v>0.2773069202987699</v>
       </c>
       <c r="F5">
-        <v>0.4789201621204242</v>
+        <v>0.3167223320595056</v>
       </c>
       <c r="G5">
-        <v>0.0007854185970240851</v>
+        <v>0.2269486506842142</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.001558266993067825</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1974927440932248</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.139421952190542</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6635499649792322</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6137193057678871</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.389539598590432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.6213624635326696</v>
+      </c>
+      <c r="P5">
+        <v>0.6885276489089378</v>
+      </c>
+      <c r="Q5">
+        <v>0.8450835095521114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.54671557181328</v>
+        <v>1.333053298826741</v>
       </c>
       <c r="C6">
-        <v>0.3560250601815085</v>
+        <v>0.3412508163009988</v>
       </c>
       <c r="D6">
-        <v>0.02602118407440202</v>
+        <v>0.04200132012310576</v>
       </c>
       <c r="E6">
-        <v>0.1730382249421112</v>
+        <v>0.2759007070762394</v>
       </c>
       <c r="F6">
-        <v>0.4767174163004242</v>
+        <v>0.3153527504649176</v>
       </c>
       <c r="G6">
-        <v>0.0007856111526976941</v>
+        <v>0.2259279792798381</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.001513352058589379</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1971995634819592</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.1394614403576693</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6586739489058999</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6150246088575742</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.384208114379845</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.6169965604501186</v>
+      </c>
+      <c r="P6">
+        <v>0.6886855976696964</v>
+      </c>
+      <c r="Q6">
+        <v>0.8422929950683482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.6241293769246</v>
+        <v>1.396722485790576</v>
       </c>
       <c r="C7">
-        <v>0.3714528814721803</v>
+        <v>0.3554569480181442</v>
       </c>
       <c r="D7">
-        <v>0.02699220680065295</v>
+        <v>0.04397406267163717</v>
       </c>
       <c r="E7">
-        <v>0.1810702797138291</v>
+        <v>0.285656403314313</v>
       </c>
       <c r="F7">
-        <v>0.492102659695405</v>
+        <v>0.324903065401891</v>
       </c>
       <c r="G7">
-        <v>0.0007842825774403428</v>
+        <v>0.2330492215007069</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.001836427508228877</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1992603786206146</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.1392168943852425</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6925589018426095</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6060522283935192</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.42152807919723</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.647296589208139</v>
+      </c>
+      <c r="P7">
+        <v>0.6876387060066023</v>
+      </c>
+      <c r="Q7">
+        <v>0.8617932891460782</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.966425385241962</v>
+        <v>1.67700047814634</v>
       </c>
       <c r="C8">
-        <v>0.4394882393344517</v>
+        <v>0.4179535213953613</v>
       </c>
       <c r="D8">
-        <v>0.03126224442115699</v>
+        <v>0.0526573432557953</v>
       </c>
       <c r="E8">
-        <v>0.2174815913409063</v>
+        <v>0.3286044427818595</v>
       </c>
       <c r="F8">
-        <v>0.5625219755865771</v>
+        <v>0.3681926998589304</v>
       </c>
       <c r="G8">
-        <v>0.0007786138809800008</v>
+        <v>0.2654349304124324</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.003558819274558145</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.20901734723234</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.13889632110671</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.843231000479868</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.568693029814721</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.59446445903086</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.7809389659959365</v>
+      </c>
+      <c r="P8">
+        <v>0.6842712534426099</v>
+      </c>
+      <c r="Q8">
+        <v>0.9512520173873611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.642203180622687</v>
+        <v>2.224709133207455</v>
       </c>
       <c r="C9">
-        <v>0.5730903209653491</v>
+        <v>0.5399212219911078</v>
       </c>
       <c r="D9">
-        <v>0.03959120688966777</v>
+        <v>0.0696254616543257</v>
       </c>
       <c r="E9">
-        <v>0.2932488000238465</v>
+        <v>0.412674748687337</v>
       </c>
       <c r="F9">
-        <v>0.7113284374447062</v>
+        <v>0.4578057286562824</v>
       </c>
       <c r="G9">
-        <v>0.0007681616177671161</v>
+        <v>0.3329449138006026</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.008169615263469654</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2307782631987578</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.1412703218794604</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.14442540750553</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5040803885064804</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.968326716496392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.043162968565895</v>
+      </c>
+      <c r="P9">
+        <v>0.6824629698810298</v>
+      </c>
+      <c r="Q9">
+        <v>1.140601870538774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.143654826636691</v>
+        <v>2.628931294497932</v>
       </c>
       <c r="C10">
-        <v>0.6717304886350632</v>
+        <v>0.6286115641497645</v>
       </c>
       <c r="D10">
-        <v>0.04569359662328054</v>
+        <v>0.08286272818682505</v>
       </c>
       <c r="E10">
-        <v>0.3525019852082494</v>
+        <v>0.4455926419335228</v>
       </c>
       <c r="F10">
-        <v>0.8288634555609349</v>
+        <v>0.5218328155694891</v>
       </c>
       <c r="G10">
-        <v>0.0007608530535109604</v>
+        <v>0.3802278231917455</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.01222098352370038</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2459831661221017</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.142898793832515</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.370893213678229</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4625108816442207</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.269397431124816</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.199066396748151</v>
+      </c>
+      <c r="P10">
+        <v>0.6909214127612273</v>
+      </c>
+      <c r="Q10">
+        <v>1.2731250933995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.37338930082683</v>
+        <v>2.834405317814003</v>
       </c>
       <c r="C11">
-        <v>0.7168005550049941</v>
+        <v>0.6630930207748804</v>
       </c>
       <c r="D11">
-        <v>0.0484686535677028</v>
+        <v>0.09603142729509528</v>
       </c>
       <c r="E11">
-        <v>0.3804646428596783</v>
+        <v>0.2535435985743391</v>
       </c>
       <c r="F11">
-        <v>0.8845199855025214</v>
+        <v>0.5060221480277107</v>
       </c>
       <c r="G11">
-        <v>0.0007576005398360893</v>
+        <v>0.3570568133253715</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02948042346008961</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.230701798975204</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1254660391027365</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.475457706701576</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4450331273412047</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.413356731147616</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.9647290889221978</v>
+      </c>
+      <c r="P11">
+        <v>0.7578787797179132</v>
+      </c>
+      <c r="Q11">
+        <v>1.192177853890684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.460664768527124</v>
+        <v>2.923520122154457</v>
       </c>
       <c r="C12">
-        <v>0.7339041213059261</v>
+        <v>0.6735375729143982</v>
       </c>
       <c r="D12">
-        <v>0.04951958612483764</v>
+        <v>0.1047757048185645</v>
       </c>
       <c r="E12">
-        <v>0.3912193446982073</v>
+        <v>0.144325733074659</v>
       </c>
       <c r="F12">
-        <v>0.9059471388874272</v>
+        <v>0.4790001889291702</v>
       </c>
       <c r="G12">
-        <v>0.0007563785520839265</v>
+        <v>0.3280267429207697</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06692335257589122</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2146268085498519</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1109541072785127</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.515313068584248</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4386346663186345</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.46899182928351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.7581299425859598</v>
+      </c>
+      <c r="P12">
+        <v>0.8192634773470644</v>
+      </c>
+      <c r="Q12">
+        <v>1.097036591419709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.441855191964692</v>
+        <v>2.927433563953741</v>
       </c>
       <c r="C13">
-        <v>0.7302188026357328</v>
+        <v>0.6660044997449006</v>
       </c>
       <c r="D13">
-        <v>0.04929324181772188</v>
+        <v>0.1105240377820991</v>
       </c>
       <c r="E13">
-        <v>0.3888953967393789</v>
+        <v>0.09156782501421024</v>
       </c>
       <c r="F13">
-        <v>0.9013161843454185</v>
+        <v>0.4416850436891053</v>
       </c>
       <c r="G13">
-        <v>0.0007566413109457796</v>
+        <v>0.2927526777945957</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1213664928050804</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1969436598771779</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.09771451808068932</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.506717353271739</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4400026704027766</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.456958044969895</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5620608859305705</v>
+      </c>
+      <c r="P13">
+        <v>0.8784673581723439</v>
+      </c>
+      <c r="Q13">
+        <v>0.985208458519395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.380563611480738</v>
+        <v>2.891551642213471</v>
       </c>
       <c r="C14">
-        <v>0.7182068953403302</v>
+        <v>0.6526258626217611</v>
       </c>
       <c r="D14">
-        <v>0.04855511152850056</v>
+        <v>0.1131908398945853</v>
       </c>
       <c r="E14">
-        <v>0.3813459879341323</v>
+        <v>0.08777822309315386</v>
       </c>
       <c r="F14">
-        <v>0.8862755516431804</v>
+        <v>0.4111590290221585</v>
       </c>
       <c r="G14">
-        <v>0.0007574998166693755</v>
+        <v>0.2655559335263007</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.169819677194468</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1839604654160638</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.08917076701129645</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.478731214390308</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4445022290379725</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.417910712765433</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.4340173340799467</v>
+      </c>
+      <c r="P14">
+        <v>0.9190600351108742</v>
+      </c>
+      <c r="Q14">
+        <v>0.9003142564101552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.343058673414873</v>
+        <v>2.864441922584149</v>
       </c>
       <c r="C15">
-        <v>0.7108542608872312</v>
+        <v>0.6455295409354278</v>
       </c>
       <c r="D15">
-        <v>0.04810300244846388</v>
+        <v>0.1131303557629195</v>
       </c>
       <c r="E15">
-        <v>0.3767440098534536</v>
+        <v>0.09106308814567399</v>
       </c>
       <c r="F15">
-        <v>0.8771096032767645</v>
+        <v>0.4015908625720996</v>
       </c>
       <c r="G15">
-        <v>0.0007580269132906072</v>
+        <v>0.2575735994278716</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1820045424578041</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1804658293484778</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.08729118048911566</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.461623794075606</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4472874220170553</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.394142611830034</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4023007569814823</v>
+      </c>
+      <c r="P15">
+        <v>0.927374414330572</v>
+      </c>
+      <c r="Q15">
+        <v>0.8760427462688938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.128677680178782</v>
+        <v>2.688556910157672</v>
       </c>
       <c r="C16">
-        <v>0.6687897093515858</v>
+        <v>0.6089580610095311</v>
       </c>
       <c r="D16">
-        <v>0.04551223889747291</v>
+        <v>0.1060193132286287</v>
       </c>
       <c r="E16">
-        <v>0.3506965857395912</v>
+        <v>0.08902807602661511</v>
       </c>
       <c r="F16">
-        <v>0.8252732695223273</v>
+        <v>0.3817291760021249</v>
       </c>
       <c r="G16">
-        <v>0.0007610670059028014</v>
+        <v>0.2446020774476381</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1678879886998601</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1774738444068049</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.08900584099478692</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.36409382997104</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4636830899413269</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.260139766284084</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.3815279242413183</v>
+      </c>
+      <c r="P16">
+        <v>0.9075963205902724</v>
+      </c>
+      <c r="Q16">
+        <v>0.8420919892821388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.997609275947639</v>
+        <v>2.573074043691122</v>
       </c>
       <c r="C17">
-        <v>0.643040691851553</v>
+        <v>0.5880465980632152</v>
       </c>
       <c r="D17">
-        <v>0.04392279212004269</v>
+        <v>0.09916773969814585</v>
       </c>
       <c r="E17">
-        <v>0.3349897783686089</v>
+        <v>0.0841019986098126</v>
       </c>
       <c r="F17">
-        <v>0.7940590662176703</v>
+        <v>0.3827636468442535</v>
       </c>
       <c r="G17">
-        <v>0.0007629500041087323</v>
+        <v>0.2490688988790879</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1294977131477708</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1821078872428856</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.09489063792164742</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.304682985075033</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4741177980259152</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.179804677421231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4303552322927331</v>
+      </c>
+      <c r="P17">
+        <v>0.8712016131289744</v>
+      </c>
+      <c r="Q17">
+        <v>0.8611488226317192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.922371795082825</v>
+        <v>2.496533701716771</v>
       </c>
       <c r="C18">
-        <v>0.6282486668344518</v>
+        <v>0.5782325083079911</v>
       </c>
       <c r="D18">
-        <v>0.04300848068192664</v>
+        <v>0.0919136778645111</v>
       </c>
       <c r="E18">
-        <v>0.3260491613893137</v>
+        <v>0.1047963191453007</v>
       </c>
       <c r="F18">
-        <v>0.7763091952087109</v>
+        <v>0.4018790567727848</v>
       </c>
       <c r="G18">
-        <v>0.0007640398953562277</v>
+        <v>0.2693668962114089</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07687823815929562</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1938837810306069</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1053053219558464</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.270654271455655</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4802534905051132</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.134249626473036</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5570939876724452</v>
+      </c>
+      <c r="P18">
+        <v>0.8190503238045466</v>
+      </c>
+      <c r="Q18">
+        <v>0.9287746275374786</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.896922008987019</v>
+        <v>2.457175549138753</v>
       </c>
       <c r="C19">
-        <v>0.6232432228791822</v>
+        <v>0.5781310088579232</v>
       </c>
       <c r="D19">
-        <v>0.04269888653041676</v>
+        <v>0.08506315706728174</v>
       </c>
       <c r="E19">
-        <v>0.3230374801950902</v>
+        <v>0.1877099411703398</v>
       </c>
       <c r="F19">
-        <v>0.7703333201841502</v>
+        <v>0.4345771112449199</v>
       </c>
       <c r="G19">
-        <v>0.0007644101094707261</v>
+        <v>0.3017985019544795</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03286854271068052</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2108261290556186</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1191874922939284</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.259156187561601</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4823535233891647</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.118934051438202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.7572327283065832</v>
+      </c>
+      <c r="P19">
+        <v>0.7616357568971353</v>
+      </c>
+      <c r="Q19">
+        <v>1.032993806898105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.011545922085361</v>
+        <v>2.522911982366395</v>
       </c>
       <c r="C20">
-        <v>0.6457797867863349</v>
+        <v>0.605310821605002</v>
       </c>
       <c r="D20">
-        <v>0.04409200068551655</v>
+        <v>0.07941779193279075</v>
       </c>
       <c r="E20">
-        <v>0.3366519705049313</v>
+        <v>0.4356988956709245</v>
       </c>
       <c r="F20">
-        <v>0.7973605335667884</v>
+        <v>0.5045455164005617</v>
       </c>
       <c r="G20">
-        <v>0.0007627488527343454</v>
+        <v>0.36737202213655</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.01106075494399406</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2417472598734207</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1422230587362314</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.310992329810773</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4729930469544712</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.188288253363908</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.156580235916167</v>
+      </c>
+      <c r="P20">
+        <v>0.6886984554844418</v>
+      </c>
+      <c r="Q20">
+        <v>1.236886465094216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.398558441508044</v>
+        <v>2.829345418849698</v>
       </c>
       <c r="C21">
-        <v>0.7217340251267217</v>
+        <v>0.6743644565674174</v>
       </c>
       <c r="D21">
-        <v>0.04877191431967276</v>
+        <v>0.08836133136916402</v>
       </c>
       <c r="E21">
-        <v>0.3835587546812604</v>
+        <v>0.5058913265092002</v>
       </c>
       <c r="F21">
-        <v>0.8906835123549968</v>
+        <v>0.5631367220292987</v>
       </c>
       <c r="G21">
-        <v>0.0007572473963002477</v>
+        <v>0.4129571340856728</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.01491273449166319</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2581359884988075</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1476535480257546</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.48694407790407</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4431745120511508</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.429348483997842</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.334030388016089</v>
+      </c>
+      <c r="P21">
+        <v>0.686188330081805</v>
+      </c>
+      <c r="Q21">
+        <v>1.368178679103153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.65315034963993</v>
+        <v>3.030934015617049</v>
       </c>
       <c r="C22">
-        <v>0.7715916049456553</v>
+        <v>0.7191481488386273</v>
       </c>
       <c r="D22">
-        <v>0.05183108407767634</v>
+        <v>0.09460934323276149</v>
       </c>
       <c r="E22">
-        <v>0.4151929396434184</v>
+        <v>0.5370895719130218</v>
       </c>
       <c r="F22">
-        <v>0.9537418717263648</v>
+        <v>0.5995700382564522</v>
       </c>
       <c r="G22">
-        <v>0.0007537078603899724</v>
+        <v>0.440776812081495</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01751049268034799</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2679257239541641</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.1505438893396729</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.603468477165151</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4249759462150209</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.593488462702794</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.431293903520867</v>
+      </c>
+      <c r="P22">
+        <v>0.6885470897086634</v>
+      </c>
+      <c r="Q22">
+        <v>1.447865832162705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.517101694085</v>
+        <v>2.923329449207984</v>
       </c>
       <c r="C23">
-        <v>0.7449589604190976</v>
+        <v>0.6952457182524938</v>
       </c>
       <c r="D23">
-        <v>0.05019821767096744</v>
+        <v>0.09127416979335123</v>
       </c>
       <c r="E23">
-        <v>0.3982122635794809</v>
+        <v>0.520428519380161</v>
       </c>
       <c r="F23">
-        <v>0.9198845227225689</v>
+        <v>0.5800447709006349</v>
       </c>
       <c r="G23">
-        <v>0.0007555921049756109</v>
+        <v>0.4258590974744862</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01610293405187768</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2626610251409431</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.1489562890856959</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.541124051562448</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4345659412227008</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.505240310483742</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.379359349251274</v>
+      </c>
+      <c r="P23">
+        <v>0.6872235064014944</v>
+      </c>
+      <c r="Q23">
+        <v>1.405104680510846</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.005244808128339</v>
+        <v>2.516008429829299</v>
       </c>
       <c r="C24">
-        <v>0.6445414069664821</v>
+        <v>0.6047165816346478</v>
       </c>
       <c r="D24">
-        <v>0.04401550312039149</v>
+        <v>0.07865122390489887</v>
       </c>
       <c r="E24">
-        <v>0.3359002164219618</v>
+        <v>0.4575211351421871</v>
       </c>
       <c r="F24">
-        <v>0.7958673336752753</v>
+        <v>0.5077830453811458</v>
       </c>
       <c r="G24">
-        <v>0.0007628397703734318</v>
+        <v>0.3708281069746846</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.01121588117571717</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2435648040399201</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.1438982381549643</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.308139481085604</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4735011223571419</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.184450872822993</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.183128252515601</v>
+      </c>
+      <c r="P24">
+        <v>0.6835941884443102</v>
+      </c>
+      <c r="Q24">
+        <v>1.248016229861065</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.458685667129316</v>
+        <v>2.076685544869349</v>
       </c>
       <c r="C25">
-        <v>0.5368913108602271</v>
+        <v>0.5069770334520172</v>
       </c>
       <c r="D25">
-        <v>0.0373417721910414</v>
+        <v>0.06503945365592756</v>
       </c>
       <c r="E25">
-        <v>0.2721936288698359</v>
+        <v>0.3899257124658817</v>
       </c>
       <c r="F25">
-        <v>0.669759769377066</v>
+        <v>0.4329970211940051</v>
       </c>
       <c r="G25">
-        <v>0.0007709215272847238</v>
+        <v>0.3141985145819746</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.006773878614611373</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2245856210067956</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.1402793352692946</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.062165125371308</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5205718456194361</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.862953174140642</v>
+        <v>0.9721673627468306</v>
+      </c>
+      <c r="P25">
+        <v>0.6824092670703834</v>
+      </c>
+      <c r="Q25">
+        <v>1.087720003850279</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.752791519178828</v>
+        <v>1.704647725152711</v>
       </c>
       <c r="C2">
-        <v>0.4348431241315041</v>
+        <v>0.462433851545228</v>
       </c>
       <c r="D2">
-        <v>0.055005299434427</v>
+        <v>0.05749050765312091</v>
       </c>
       <c r="E2">
-        <v>0.340223264371609</v>
+        <v>0.3352703630947858</v>
       </c>
       <c r="F2">
-        <v>0.3802202499619369</v>
+        <v>0.370114559147062</v>
       </c>
       <c r="G2">
-        <v>0.2744613272272503</v>
+        <v>0.25060339836606</v>
       </c>
       <c r="H2">
-        <v>0.004103156859608048</v>
+        <v>0.003739380238146683</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2118301893496479</v>
+        <v>0.2541155890439839</v>
       </c>
       <c r="K2">
-        <v>0.1390030165527669</v>
+        <v>0.1343186027339343</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1056264338860569</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01940432104621692</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8171452402982666</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6836729792276657</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.9763739423633808</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.8168436258058094</v>
+      </c>
+      <c r="R2">
+        <v>0.7083743801994942</v>
+      </c>
+      <c r="S2">
+        <v>0.9487966303923088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.532819340907082</v>
+        <v>1.496356237458855</v>
       </c>
       <c r="C3">
-        <v>0.3858117541877277</v>
+        <v>0.4055490063951765</v>
       </c>
       <c r="D3">
-        <v>0.04819060914428519</v>
+        <v>0.05010858084437331</v>
       </c>
       <c r="E3">
-        <v>0.3065088541930407</v>
+        <v>0.3023536962566098</v>
       </c>
       <c r="F3">
-        <v>0.3456800341596065</v>
+        <v>0.3386924855435964</v>
       </c>
       <c r="G3">
-        <v>0.248571979284101</v>
+        <v>0.2269559515259019</v>
       </c>
       <c r="H3">
-        <v>0.002613730153021354</v>
+        <v>0.002369936170331766</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2038652484388592</v>
+        <v>0.2465151173330966</v>
       </c>
       <c r="K3">
-        <v>0.1389142330835718</v>
+        <v>0.1356327788517753</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1104409154506278</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.01633053715587529</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7121395688409464</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6857641789498956</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.9045270066193325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.7119746694184386</v>
+      </c>
+      <c r="R3">
+        <v>0.7047588298543062</v>
+      </c>
+      <c r="S3">
+        <v>0.8862134914379851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.397467096733834</v>
+        <v>1.367948233857959</v>
       </c>
       <c r="C4">
-        <v>0.3556230674300025</v>
+        <v>0.3706690406151836</v>
       </c>
       <c r="D4">
-        <v>0.04399713323474685</v>
+        <v>0.04557617580627493</v>
       </c>
       <c r="E4">
-        <v>0.2857704913253087</v>
+        <v>0.2821057902369546</v>
       </c>
       <c r="F4">
-        <v>0.3250154155336347</v>
+        <v>0.3198293084361694</v>
       </c>
       <c r="G4">
-        <v>0.233133049880621</v>
+        <v>0.2128545313545658</v>
       </c>
       <c r="H4">
-        <v>0.001840362635482373</v>
+        <v>0.001660411926485139</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1992848444074369</v>
+        <v>0.2419989084393066</v>
       </c>
       <c r="K4">
-        <v>0.1392144354421916</v>
+        <v>0.1367082456809925</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1135954177497744</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.01495289605215167</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6476510832196212</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6876271281806368</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.8620232554807359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.6475519988941514</v>
+      </c>
+      <c r="R4">
+        <v>0.7031642227715409</v>
+      </c>
+      <c r="S4">
+        <v>0.8490317496064819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.342230328790123</v>
+        <v>1.315486624073031</v>
       </c>
       <c r="C5">
-        <v>0.3432986576366943</v>
+        <v>0.3564656843883824</v>
       </c>
       <c r="D5">
-        <v>0.0422856708993109</v>
+        <v>0.04372893341651718</v>
       </c>
       <c r="E5">
-        <v>0.2773069202987699</v>
+        <v>0.2738425082140097</v>
       </c>
       <c r="F5">
-        <v>0.3167223320595056</v>
+        <v>0.3122431680872282</v>
       </c>
       <c r="G5">
-        <v>0.2269486506842142</v>
+        <v>0.2072051731181119</v>
       </c>
       <c r="H5">
-        <v>0.001558266993067825</v>
+        <v>0.001402070630390662</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1974927440932248</v>
+        <v>0.2401946390391743</v>
       </c>
       <c r="K5">
-        <v>0.139421952190542</v>
+        <v>0.137210948320666</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1149307626272389</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.01451750485212688</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6213624635326696</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6885276489089378</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.8450835095521114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.6212863194691707</v>
+      </c>
+      <c r="R5">
+        <v>0.7026681254424787</v>
+      </c>
+      <c r="S5">
+        <v>0.8341727742170519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.333053298826741</v>
+        <v>1.306767178138188</v>
       </c>
       <c r="C6">
-        <v>0.3412508163009988</v>
+        <v>0.3541078232370012</v>
       </c>
       <c r="D6">
-        <v>0.04200132012310576</v>
+        <v>0.04342217710705398</v>
       </c>
       <c r="E6">
-        <v>0.2759007070762394</v>
+        <v>0.2724695858637816</v>
       </c>
       <c r="F6">
-        <v>0.3153527504649176</v>
+        <v>0.3109893697778574</v>
       </c>
       <c r="G6">
-        <v>0.2259279792798381</v>
+        <v>0.206272734698814</v>
       </c>
       <c r="H6">
-        <v>0.001513352058589379</v>
+        <v>0.001360969355826191</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1971995634819592</v>
+        <v>0.23989717404136</v>
       </c>
       <c r="K6">
-        <v>0.1394614403576693</v>
+        <v>0.1372982254185438</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1151555064481862</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.01445275799985879</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6169965604501186</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6886855976696964</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.8422929950683482</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.6169240105244</v>
+      </c>
+      <c r="R6">
+        <v>0.7025949335483261</v>
+      </c>
+      <c r="S6">
+        <v>0.8317225698539232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.396722485790576</v>
+        <v>1.36634472978551</v>
       </c>
       <c r="C7">
-        <v>0.3554569480181442</v>
+        <v>0.3698978219804587</v>
       </c>
       <c r="D7">
-        <v>0.04397406267163717</v>
+        <v>0.04565364819090689</v>
       </c>
       <c r="E7">
-        <v>0.285656403314313</v>
+        <v>0.2820698150624636</v>
       </c>
       <c r="F7">
-        <v>0.324903065401891</v>
+        <v>0.3190424810195012</v>
       </c>
       <c r="G7">
-        <v>0.2330492215007069</v>
+        <v>0.2155292538639841</v>
       </c>
       <c r="H7">
-        <v>0.001836427508228877</v>
+        <v>0.001654911754465083</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1992603786206146</v>
+        <v>0.2379807726769627</v>
       </c>
       <c r="K7">
-        <v>0.1392168943852425</v>
+        <v>0.1364873460823883</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1134876872436621</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.0148950832415089</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.647296589208139</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6876387060066023</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.8617932891460782</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.6469276557200772</v>
+      </c>
+      <c r="R7">
+        <v>0.7035769824229661</v>
+      </c>
+      <c r="S7">
+        <v>0.8466627740698129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.67700047814634</v>
+        <v>1.629930813622138</v>
       </c>
       <c r="C8">
-        <v>0.4179535213953613</v>
+        <v>0.4408521872299502</v>
       </c>
       <c r="D8">
-        <v>0.0526573432557953</v>
+        <v>0.05529031279370145</v>
       </c>
       <c r="E8">
-        <v>0.3286044427818595</v>
+        <v>0.3241853927734013</v>
       </c>
       <c r="F8">
-        <v>0.3681926998589304</v>
+        <v>0.3569078952494493</v>
       </c>
       <c r="G8">
-        <v>0.2654349304124324</v>
+        <v>0.2515859155093736</v>
       </c>
       <c r="H8">
-        <v>0.003558819274558145</v>
+        <v>0.003230374945248915</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.20901734723234</v>
+        <v>0.238415509310677</v>
       </c>
       <c r="K8">
-        <v>0.13889632110671</v>
+        <v>0.1339692392433847</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1068797001463171</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.01802371439635486</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7809389659959365</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6842712534426099</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.9512520173873611</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.779780199116928</v>
+      </c>
+      <c r="R8">
+        <v>0.7084563729538189</v>
+      </c>
+      <c r="S8">
+        <v>0.9197464966970301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.224709133207455</v>
+        <v>2.146227187088186</v>
       </c>
       <c r="C9">
-        <v>0.5399212219911078</v>
+        <v>0.582550179215815</v>
       </c>
       <c r="D9">
-        <v>0.0696254616543257</v>
+        <v>0.07383051712174193</v>
       </c>
       <c r="E9">
-        <v>0.412674748687337</v>
+        <v>0.4063405831192313</v>
       </c>
       <c r="F9">
-        <v>0.4578057286562824</v>
+        <v>0.4374072573067096</v>
       </c>
       <c r="G9">
-        <v>0.3329449138006026</v>
+        <v>0.315884352093704</v>
       </c>
       <c r="H9">
-        <v>0.008169615263469654</v>
+        <v>0.007471234097968793</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2307782631987578</v>
+        <v>0.2546797844406825</v>
       </c>
       <c r="K9">
-        <v>0.1412703218794604</v>
+        <v>0.1321320900401233</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.09595813387937291</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.02848763837770996</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.043162968565895</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6824629698810298</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.140601870538774</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.041258594458888</v>
+      </c>
+      <c r="R9">
+        <v>0.7216321674535919</v>
+      </c>
+      <c r="S9">
+        <v>1.081750068442375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.628931294497932</v>
+        <v>2.521403186397208</v>
       </c>
       <c r="C10">
-        <v>0.6286115641497645</v>
+        <v>0.6821514999787439</v>
       </c>
       <c r="D10">
-        <v>0.08286272818682505</v>
+        <v>0.08888309250732362</v>
       </c>
       <c r="E10">
-        <v>0.4455926419335228</v>
+        <v>0.4384025097452025</v>
       </c>
       <c r="F10">
-        <v>0.5218328155694891</v>
+        <v>0.4904681258760064</v>
       </c>
       <c r="G10">
-        <v>0.3802278231917455</v>
+        <v>0.3777129046260939</v>
       </c>
       <c r="H10">
-        <v>0.01222098352370038</v>
+        <v>0.01118196712092345</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2459831661221017</v>
+        <v>0.2435271470948379</v>
       </c>
       <c r="K10">
-        <v>0.142898793832515</v>
+        <v>0.1292797610093928</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.0878063320356901</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.03753795653754466</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.199066396748151</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6909214127612273</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.2731250933995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.194906697729053</v>
+      </c>
+      <c r="R10">
+        <v>0.7442493073201604</v>
+      </c>
+      <c r="S10">
+        <v>1.180904639796296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.834405317814003</v>
+        <v>2.710783965276221</v>
       </c>
       <c r="C11">
-        <v>0.6630930207748804</v>
+        <v>0.7097031803527898</v>
       </c>
       <c r="D11">
-        <v>0.09603142729509528</v>
+        <v>0.1039137254827978</v>
       </c>
       <c r="E11">
-        <v>0.2535435985743391</v>
+        <v>0.2470524444560667</v>
       </c>
       <c r="F11">
-        <v>0.5060221480277107</v>
+        <v>0.4668139712277579</v>
       </c>
       <c r="G11">
-        <v>0.3570568133253715</v>
+        <v>0.3923163637204254</v>
       </c>
       <c r="H11">
-        <v>0.02948042346008961</v>
+        <v>0.02841611475802708</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.230701798975204</v>
+        <v>0.1893701228899758</v>
       </c>
       <c r="K11">
-        <v>0.1254660391027365</v>
+        <v>0.1111954459835545</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.07867301350091971</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.03454424007042611</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9647290889221978</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7578787797179132</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.192177853890684</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.9580020321690199</v>
+      </c>
+      <c r="R11">
+        <v>0.8246752817216532</v>
+      </c>
+      <c r="S11">
+        <v>1.077957254692933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.923520122154457</v>
+        <v>2.79590290807073</v>
       </c>
       <c r="C12">
-        <v>0.6735375729143982</v>
+        <v>0.7140327431400806</v>
       </c>
       <c r="D12">
-        <v>0.1047757048185645</v>
+        <v>0.1134867478881745</v>
       </c>
       <c r="E12">
-        <v>0.144325733074659</v>
+        <v>0.1378663999787406</v>
       </c>
       <c r="F12">
-        <v>0.4790001889291702</v>
+        <v>0.4382474744984464</v>
       </c>
       <c r="G12">
-        <v>0.3280267429207697</v>
+        <v>0.3804302374164905</v>
       </c>
       <c r="H12">
-        <v>0.06692335257589122</v>
+        <v>0.06590012288509683</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2146268085498519</v>
+        <v>0.1620398231102627</v>
       </c>
       <c r="K12">
-        <v>0.1109541072785127</v>
+        <v>0.09800748178908947</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.0733793754017622</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.03042079149021326</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.7581299425859598</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8192634773470644</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.097036591419709</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.7510685631621641</v>
+      </c>
+      <c r="R12">
+        <v>0.8928428861150337</v>
+      </c>
+      <c r="S12">
+        <v>0.9802092248870622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.927433563953741</v>
+        <v>2.807745942718611</v>
       </c>
       <c r="C13">
-        <v>0.6660044997449006</v>
+        <v>0.7023243669221415</v>
       </c>
       <c r="D13">
-        <v>0.1105240377820991</v>
+        <v>0.1188923850953927</v>
       </c>
       <c r="E13">
-        <v>0.09156782501421024</v>
+        <v>0.08496142941094575</v>
       </c>
       <c r="F13">
-        <v>0.4416850436891053</v>
+        <v>0.4055051430935208</v>
       </c>
       <c r="G13">
-        <v>0.2927526777945957</v>
+        <v>0.3406445492821746</v>
       </c>
       <c r="H13">
-        <v>0.1213664928050804</v>
+        <v>0.1204394928275434</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1969436598771779</v>
+        <v>0.1543920667759195</v>
       </c>
       <c r="K13">
-        <v>0.09771451808068932</v>
+        <v>0.08783742734477862</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07029896707152261</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.02548352501587736</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5620608859305705</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8784673581723439</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.985208458519395</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5564319105255393</v>
+      </c>
+      <c r="R13">
+        <v>0.9513748126960166</v>
+      </c>
+      <c r="S13">
+        <v>0.8840391346223839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.891551642213471</v>
+        <v>2.782739851105418</v>
       </c>
       <c r="C14">
-        <v>0.6526258626217611</v>
+        <v>0.6868427501616452</v>
       </c>
       <c r="D14">
-        <v>0.1131908398945853</v>
+        <v>0.1207632434167039</v>
       </c>
       <c r="E14">
-        <v>0.08777822309315386</v>
+        <v>0.08121190655229071</v>
       </c>
       <c r="F14">
-        <v>0.4111590290221585</v>
+        <v>0.3806195285984728</v>
       </c>
       <c r="G14">
-        <v>0.2655559335263007</v>
+        <v>0.3019324000879493</v>
       </c>
       <c r="H14">
-        <v>0.169819677194468</v>
+        <v>0.168977283118096</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1839604654160638</v>
+        <v>0.1563117661100648</v>
       </c>
       <c r="K14">
-        <v>0.08917076701129645</v>
+        <v>0.08200743116653619</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06898409137944572</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02177408015271176</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4340173340799467</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9190600351108742</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.9003142564101552</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4298783418092569</v>
+      </c>
+      <c r="R14">
+        <v>0.9876864672580439</v>
+      </c>
+      <c r="S14">
+        <v>0.8170623807972106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.864441922584149</v>
+        <v>2.760609350655443</v>
       </c>
       <c r="C15">
-        <v>0.6455295409354278</v>
+        <v>0.6795378572540187</v>
       </c>
       <c r="D15">
-        <v>0.1131303557629195</v>
+        <v>0.1202718064705124</v>
       </c>
       <c r="E15">
-        <v>0.09106308814567399</v>
+        <v>0.08460510329399362</v>
       </c>
       <c r="F15">
-        <v>0.4015908625720996</v>
+        <v>0.3734831564676071</v>
       </c>
       <c r="G15">
-        <v>0.2575735994278716</v>
+        <v>0.2877643033588981</v>
       </c>
       <c r="H15">
-        <v>0.1820045424578041</v>
+        <v>0.1811969628422503</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1804658293484778</v>
+        <v>0.1599612219607565</v>
       </c>
       <c r="K15">
-        <v>0.08729118048911566</v>
+        <v>0.08105051959742404</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06900654810252682</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02069435644311213</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4023007569814823</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.927374414330572</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.8760427462688938</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3987246042763815</v>
+      </c>
+      <c r="R15">
+        <v>0.9933556794000538</v>
+      </c>
+      <c r="S15">
+        <v>0.8001833740150346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.688556910157672</v>
+        <v>2.604738566712172</v>
       </c>
       <c r="C16">
-        <v>0.6089580610095311</v>
+        <v>0.6448236411914934</v>
       </c>
       <c r="D16">
-        <v>0.1060193132286287</v>
+        <v>0.1112203383696624</v>
       </c>
       <c r="E16">
-        <v>0.08902807602661511</v>
+        <v>0.0833054666426456</v>
       </c>
       <c r="F16">
-        <v>0.3817291760021249</v>
+        <v>0.3627466285823857</v>
       </c>
       <c r="G16">
-        <v>0.2446020774476381</v>
+        <v>0.2470068666263856</v>
       </c>
       <c r="H16">
-        <v>0.1678879886998601</v>
+        <v>0.1672293500385109</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1774738444068049</v>
+        <v>0.1890558825228723</v>
       </c>
       <c r="K16">
-        <v>0.08900584099478692</v>
+        <v>0.08519664969022855</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.0723731116556543</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.01878599430019712</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.3815279242413183</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9075963205902724</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.8420919892821388</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3798305457338031</v>
+      </c>
+      <c r="R16">
+        <v>0.9605337912110485</v>
+      </c>
+      <c r="S16">
+        <v>0.79270324830226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.573074043691122</v>
+        <v>2.497064147377898</v>
       </c>
       <c r="C17">
-        <v>0.5880465980632152</v>
+        <v>0.6254493279980409</v>
       </c>
       <c r="D17">
-        <v>0.09916773969814585</v>
+        <v>0.10356786273978</v>
       </c>
       <c r="E17">
-        <v>0.0841019986098126</v>
+        <v>0.07863211077015331</v>
       </c>
       <c r="F17">
-        <v>0.3827636468442535</v>
+        <v>0.3670128866010884</v>
       </c>
       <c r="G17">
-        <v>0.2490688988790879</v>
+        <v>0.239449587064783</v>
       </c>
       <c r="H17">
-        <v>0.1294977131477708</v>
+        <v>0.1289040388338663</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1821078872428856</v>
+        <v>0.2083175246877431</v>
       </c>
       <c r="K17">
-        <v>0.09489063792164742</v>
+        <v>0.09145692615284773</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07589573226502466</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01913193771351196</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4303552322927331</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8712016131289744</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.8611488226317192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4293433021698689</v>
+      </c>
+      <c r="R17">
+        <v>0.9181691213107683</v>
+      </c>
+      <c r="S17">
+        <v>0.8206529719847993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.496533701716771</v>
+        <v>2.421151666931507</v>
       </c>
       <c r="C18">
-        <v>0.5782325083079911</v>
+        <v>0.6184504904827577</v>
       </c>
       <c r="D18">
-        <v>0.0919136778645111</v>
+        <v>0.09608498562913326</v>
       </c>
       <c r="E18">
-        <v>0.1047963191453007</v>
+        <v>0.09915807694232548</v>
       </c>
       <c r="F18">
-        <v>0.4018790567727848</v>
+        <v>0.3861322330271761</v>
       </c>
       <c r="G18">
-        <v>0.2693668962114089</v>
+        <v>0.2532033989732341</v>
       </c>
       <c r="H18">
-        <v>0.07687823815929562</v>
+        <v>0.07628473285228665</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1938837810306069</v>
+        <v>0.2259700488894509</v>
       </c>
       <c r="K18">
-        <v>0.1053053219558464</v>
+        <v>0.1008655913613552</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08019372491339283</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.02157386991035004</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5570939876724452</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8190503238045466</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.9287746275374786</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5562537050389551</v>
+      </c>
+      <c r="R18">
+        <v>0.86361307544054</v>
+      </c>
+      <c r="S18">
+        <v>0.8873665551176231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.457175549138753</v>
+        <v>2.377636536143029</v>
       </c>
       <c r="C19">
-        <v>0.5781310088579232</v>
+        <v>0.6225589910160352</v>
       </c>
       <c r="D19">
-        <v>0.08506315706728174</v>
+        <v>0.08933220060430358</v>
       </c>
       <c r="E19">
-        <v>0.1877099411703398</v>
+        <v>0.1815636767638971</v>
       </c>
       <c r="F19">
-        <v>0.4345771112449199</v>
+        <v>0.4167258180958981</v>
       </c>
       <c r="G19">
-        <v>0.3017985019544795</v>
+        <v>0.2816070546139855</v>
       </c>
       <c r="H19">
-        <v>0.03286854271068052</v>
+        <v>0.03220766754997584</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2108261290556186</v>
+        <v>0.2436175952605808</v>
       </c>
       <c r="K19">
-        <v>0.1191874922939284</v>
+        <v>0.1127127801502361</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08496428433136138</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02578724262355259</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7572327283065832</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.7616357568971353</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.032993806898105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.7562259396713031</v>
+      </c>
+      <c r="R19">
+        <v>0.8057199013364169</v>
+      </c>
+      <c r="S19">
+        <v>0.9841183622356198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.522911982366395</v>
+        <v>2.426475849468432</v>
       </c>
       <c r="C20">
-        <v>0.605310821605002</v>
+        <v>0.6581202135585613</v>
       </c>
       <c r="D20">
-        <v>0.07941779193279075</v>
+        <v>0.0845661432640199</v>
       </c>
       <c r="E20">
-        <v>0.4356988956709245</v>
+        <v>0.428449908989073</v>
       </c>
       <c r="F20">
-        <v>0.5045455164005617</v>
+        <v>0.4786088410290859</v>
       </c>
       <c r="G20">
-        <v>0.36737202213655</v>
+        <v>0.3507707036638266</v>
       </c>
       <c r="H20">
-        <v>0.01106075494399406</v>
+        <v>0.01013089321886218</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2417472598734207</v>
+        <v>0.2595429792545048</v>
       </c>
       <c r="K20">
-        <v>0.1422230587362314</v>
+        <v>0.1306071768315356</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09010890712137076</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.03528787813170098</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.156580235916167</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6886984554844418</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.236886465094216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.154028582864029</v>
+      </c>
+      <c r="R20">
+        <v>0.7365281270005113</v>
+      </c>
+      <c r="S20">
+        <v>1.161427002630177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.829345418849698</v>
+        <v>2.691204560554922</v>
       </c>
       <c r="C21">
-        <v>0.6743644565674174</v>
+        <v>0.7250654911923391</v>
       </c>
       <c r="D21">
-        <v>0.08836133136916402</v>
+        <v>0.09703860919037055</v>
       </c>
       <c r="E21">
-        <v>0.5058913265092002</v>
+        <v>0.4994881908641275</v>
       </c>
       <c r="F21">
-        <v>0.5631367220292987</v>
+        <v>0.514631953133744</v>
       </c>
       <c r="G21">
-        <v>0.4129571340856728</v>
+        <v>0.4643217681936846</v>
       </c>
       <c r="H21">
-        <v>0.01491273449166319</v>
+        <v>0.01358245750142589</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2581359884988075</v>
+        <v>0.1921580429675913</v>
       </c>
       <c r="K21">
-        <v>0.1476535480257546</v>
+        <v>0.1276926847972355</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08383245380416326</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.0424575377428198</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.334030388016089</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.686188330081805</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.368178679103153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.324109826999745</v>
+      </c>
+      <c r="R21">
+        <v>0.7541911241157067</v>
+      </c>
+      <c r="S21">
+        <v>1.222475729854068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.030934015617049</v>
+        <v>2.863900467125575</v>
       </c>
       <c r="C22">
-        <v>0.7191481488386273</v>
+        <v>0.7671196527163033</v>
       </c>
       <c r="D22">
-        <v>0.09460934323276149</v>
+        <v>0.1058321391174104</v>
       </c>
       <c r="E22">
-        <v>0.5370895719130218</v>
+        <v>0.5315166354091474</v>
       </c>
       <c r="F22">
-        <v>0.5995700382564522</v>
+        <v>0.5351589861367074</v>
       </c>
       <c r="G22">
-        <v>0.440776812081495</v>
+        <v>0.5456327716384095</v>
       </c>
       <c r="H22">
-        <v>0.01751049268034799</v>
+        <v>0.01590071583439512</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2679257239541641</v>
+        <v>0.1526992377914524</v>
       </c>
       <c r="K22">
-        <v>0.1505438893396729</v>
+        <v>0.1248856686810775</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.07962619318420039</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.04698891551306872</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.431293903520867</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.6885470897086634</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.447865832162705</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.415982989130939</v>
+      </c>
+      <c r="R22">
+        <v>0.7710410211637537</v>
+      </c>
+      <c r="S22">
+        <v>1.252880841353488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.923329449207984</v>
+        <v>2.774252567297367</v>
       </c>
       <c r="C23">
-        <v>0.6952457182524938</v>
+        <v>0.7463125269462978</v>
       </c>
       <c r="D23">
-        <v>0.09127416979335123</v>
+        <v>0.1008332983465721</v>
       </c>
       <c r="E23">
-        <v>0.520428519380161</v>
+        <v>0.5141630127186758</v>
       </c>
       <c r="F23">
-        <v>0.5800447709006349</v>
+        <v>0.5259992640158089</v>
       </c>
       <c r="G23">
-        <v>0.4258590974744862</v>
+        <v>0.4932308831620276</v>
       </c>
       <c r="H23">
-        <v>0.01610293405187768</v>
+        <v>0.01465476114210251</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2626610251409431</v>
+        <v>0.1798925512474625</v>
       </c>
       <c r="K23">
-        <v>0.1489562890856959</v>
+        <v>0.1269218322559347</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08202374224104858</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.04479370894742374</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.379359349251274</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.6872235064014944</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.405104680510846</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.367706147034113</v>
+      </c>
+      <c r="R23">
+        <v>0.7605875567277138</v>
+      </c>
+      <c r="S23">
+        <v>1.242266949058234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.516008429829299</v>
+        <v>2.419436348175282</v>
       </c>
       <c r="C24">
-        <v>0.6047165816346478</v>
+        <v>0.6579636336809358</v>
       </c>
       <c r="D24">
-        <v>0.07865122390489887</v>
+        <v>0.08377973670773287</v>
       </c>
       <c r="E24">
-        <v>0.4575211351421871</v>
+        <v>0.4501955960948223</v>
       </c>
       <c r="F24">
-        <v>0.5077830453811458</v>
+        <v>0.4817347455178478</v>
       </c>
       <c r="G24">
-        <v>0.3708281069746846</v>
+        <v>0.3534005937138289</v>
       </c>
       <c r="H24">
-        <v>0.01121588117571717</v>
+        <v>0.01027419970122189</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2435648040399201</v>
+        <v>0.2619512559817565</v>
       </c>
       <c r="K24">
-        <v>0.1438982381549643</v>
+        <v>0.1320748497230042</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09073426225626768</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.03576107143999607</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.183128252515601</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.6835941884443102</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.248016229861065</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.180581936574114</v>
+      </c>
+      <c r="R24">
+        <v>0.7311012286547651</v>
+      </c>
+      <c r="S24">
+        <v>1.172065449610642</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.076685544869349</v>
+        <v>2.008228628600364</v>
       </c>
       <c r="C25">
-        <v>0.5069770334520172</v>
+        <v>0.545011160877408</v>
       </c>
       <c r="D25">
-        <v>0.06503945365592756</v>
+        <v>0.0686603224421134</v>
       </c>
       <c r="E25">
-        <v>0.3899257124658817</v>
+        <v>0.3839973465514106</v>
       </c>
       <c r="F25">
-        <v>0.4329970211940051</v>
+        <v>0.4161580441491566</v>
       </c>
       <c r="G25">
-        <v>0.3141985145819746</v>
+        <v>0.2940357963834686</v>
       </c>
       <c r="H25">
-        <v>0.006773878614611373</v>
+        <v>0.006191043929357376</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2245856210067956</v>
+        <v>0.2556463165124825</v>
       </c>
       <c r="K25">
-        <v>0.1402793352692946</v>
+        <v>0.1326799019563154</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.09887650958063965</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.02530987969073983</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9721673627468306</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.6824092670703834</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.087720003850279</v>
+        <v>0.9708842817396359</v>
+      </c>
+      <c r="R25">
+        <v>0.7168353628422039</v>
+      </c>
+      <c r="S25">
+        <v>1.039721958595663</v>
       </c>
     </row>
   </sheetData>
